--- a/media/output/result/sepsis_cases_2_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/sepsis_cases_2_complex_evaluation_weighted_edit_distance.xlsx
@@ -563,25 +563,25 @@
         <v>157</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.8598726114649682</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.9246575342465754</v>
       </c>
     </row>
     <row r="6">
